--- a/10v15/12/Crawfish-Cup/SHSU_TXST.xlsx
+++ b/10v15/12/Crawfish-Cup/SHSU_TXST.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v15\12\Crawfish-Cup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C793160-E2D5-4720-8E99-8B36EEF9CC99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB95055-D934-4800-9E0E-0AE2945EAC95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="1540" windowWidth="18480" windowHeight="7360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="ROSTER" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
   <si>
     <t>A</t>
   </si>
@@ -206,6 +206,114 @@
   </si>
   <si>
     <t>MICHAEL GENTEMPO</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>0135</t>
+  </si>
+  <si>
+    <t>0159</t>
+  </si>
+  <si>
+    <t>0229</t>
+  </si>
+  <si>
+    <t>0236</t>
+  </si>
+  <si>
+    <t>0242</t>
+  </si>
+  <si>
+    <t>0307</t>
+  </si>
+  <si>
+    <t>0321</t>
+  </si>
+  <si>
+    <t>0411</t>
+  </si>
+  <si>
+    <t>0435</t>
+  </si>
+  <si>
+    <t>0457</t>
+  </si>
+  <si>
+    <t>0520</t>
+  </si>
+  <si>
+    <t>0526</t>
+  </si>
+  <si>
+    <t>0555</t>
+  </si>
+  <si>
+    <t>0633</t>
+  </si>
+  <si>
+    <t>0730</t>
+  </si>
+  <si>
+    <t>0757</t>
+  </si>
+  <si>
+    <t>0823</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1147</t>
+  </si>
+  <si>
+    <t>1343</t>
+  </si>
+  <si>
+    <t>1356</t>
+  </si>
+  <si>
+    <t>1436</t>
+  </si>
+  <si>
+    <t>1509</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1657</t>
+  </si>
+  <si>
+    <t>1717</t>
+  </si>
+  <si>
+    <t>1742</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1827</t>
+  </si>
+  <si>
+    <t>1833</t>
+  </si>
+  <si>
+    <t>1955</t>
   </si>
 </sst>
 </file>
@@ -487,7 +595,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -495,20 +611,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,8 +838,8 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="73" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -759,21 +867,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -786,40 +894,40 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="23" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="23">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="19">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")</f>
         <v>10</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="24" t="str">
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="25" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCA"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CA"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="15" t="str">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="26" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>130*</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="17"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -829,25 +937,25 @@
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="24"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -857,40 +965,40 @@
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="23" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="23">
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="19">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")</f>
         <v>10</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="24" t="str">
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="25" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CB"),"!","")</f>
         <v/>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="15" t="str">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="26" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>100</v>
       </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="17"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="21"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -900,25 +1008,25 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="20"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="24"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -959,32 +1067,44 @@
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="9"/>
+      <c r="R7" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -1087,32 +1207,44 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="9"/>
+      <c r="L10" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="9"/>
+      <c r="R10" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1217,32 +1349,44 @@
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="8"/>
+      <c r="O13" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R13" s="9"/>
+      <c r="R13" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1349,19 +1493,25 @@
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="G16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="6" t="s">
         <v>1</v>
@@ -1388,12 +1538,14 @@
     </row>
     <row r="17" spans="1:26" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11">
         <v>10</v>
       </c>
-      <c r="B17" s="11">
+      <c r="C17" s="7">
         <v>21</v>
       </c>
-      <c r="C17" s="7"/>
       <c r="D17" s="10" t="s">
         <v>4</v>
       </c>
@@ -1423,9 +1575,7 @@
       <c r="N17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="7">
-        <v>23</v>
-      </c>
+      <c r="O17" s="7"/>
       <c r="P17" s="10" t="s">
         <v>54</v>
       </c>
@@ -1482,29 +1632,39 @@
       <c r="E19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="J19" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="9"/>
+      <c r="L19" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="8"/>
+      <c r="O19" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R19" s="9"/>
+      <c r="R19" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -1530,14 +1690,12 @@
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="7">
+        <v>7</v>
+      </c>
+      <c r="H20" s="11">
         <v>23</v>
       </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="10" t="s">
         <v>18</v>
       </c>
@@ -1553,7 +1711,9 @@
       <c r="N20" s="11">
         <v>41</v>
       </c>
-      <c r="O20" s="7"/>
+      <c r="O20" s="7">
+        <v>23</v>
+      </c>
       <c r="P20" s="10" t="s">
         <v>4</v>
       </c>
@@ -1605,34 +1765,46 @@
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="G22" s="3" t="s">
         <v>55</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="9"/>
+      <c r="L22" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="8"/>
+      <c r="O22" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R22" s="9"/>
+      <c r="R22" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -1737,17 +1909,23 @@
       <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="8"/>
+      <c r="I25" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="6" t="s">
         <v>1</v>
@@ -1757,7 +1935,9 @@
       <c r="N25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O25" s="8"/>
+      <c r="O25" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="6" t="s">
         <v>1</v>
@@ -1797,14 +1977,18 @@
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="11">
+      <c r="N26" s="11">
         <v>40</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="11"/>
       <c r="O26" s="7"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="11"/>
@@ -29256,6 +29440,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R2:T3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:T5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29265,13 +29456,6 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="R2:T3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:T5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29291,7 +29475,7 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
